--- a/agent/models/charts.xlsx
+++ b/agent/models/charts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MAE (TS)</t>
   </si>
@@ -30,9 +30,6 @@
     <t>RMSE (TS)</t>
   </si>
   <si>
-    <t>MAPE (TS)</t>
-  </si>
-  <si>
     <t>R^2 (TS)</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>RMSE (TE)</t>
   </si>
   <si>
-    <t>MAPE (TE)</t>
-  </si>
-  <si>
     <t>R^2 (TE)</t>
   </si>
   <si>
@@ -57,12 +51,6 @@
     <t>regLin</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>regKNN</t>
   </si>
   <si>
@@ -79,156 +67,6 @@
   </si>
   <si>
     <t>Combinazione ottimale di iperparametri</t>
-  </si>
-  <si>
-    <t>({'criterion': 'squared_error', 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 100, 'random_state': 1, 'splitter': 'random'})</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t> ({'criterion': 'friedman_mse', 'learning_rate': 0.1, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66})</t>
-  </si>
-  <si>
-    <t>0.196552</t>
-  </si>
-  <si>
-    <t>0.069356</t>
-  </si>
-  <si>
-    <t>0.263346</t>
-  </si>
-  <si>
-    <t>0.731859</t>
-  </si>
-  <si>
-    <t>0.273616</t>
-  </si>
-  <si>
-    <t>0.139521</t>
-  </si>
-  <si>
-    <t>0.373407</t>
-  </si>
-  <si>
-    <t>0.457505</t>
-  </si>
-  <si>
-    <t>({'bootstrap': True, 'criterion': 'friedman_mse', 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66})</t>
-  </si>
-  <si>
-    <t>0.222490</t>
-  </si>
-  <si>
-    <t>0.088541</t>
-  </si>
-  <si>
-    <t>0.297540</t>
-  </si>
-  <si>
-    <t>0.657820</t>
-  </si>
-  <si>
-    <t>0.272151</t>
-  </si>
-  <si>
-    <t>0.137115</t>
-  </si>
-  <si>
-    <t>0.370104</t>
-  </si>
-  <si>
-    <t>0.467845</t>
-  </si>
-  <si>
-    <t>({'C': 20, 'epsilon': 0.2, 'gamma': 'scale', 'kernel': 'rbf'})</t>
-  </si>
-  <si>
-    <t>0.275025</t>
-  </si>
-  <si>
-    <t>0.134018</t>
-  </si>
-  <si>
-    <t>0.366051</t>
-  </si>
-  <si>
-    <t>0.481964</t>
-  </si>
-  <si>
-    <t>0.303764</t>
-  </si>
-  <si>
-    <t>0.166834</t>
-  </si>
-  <si>
-    <t>0.407963</t>
-  </si>
-  <si>
-    <t>0.351539</t>
-  </si>
-  <si>
-    <t>0.280486</t>
-  </si>
-  <si>
-    <t>0.144798</t>
-  </si>
-  <si>
-    <t>0.380506</t>
-  </si>
-  <si>
-    <t>0.440234</t>
-  </si>
-  <si>
-    <t>0.298021</t>
-  </si>
-  <si>
-    <t>0.166838</t>
-  </si>
-  <si>
-    <t>0.408210</t>
-  </si>
-  <si>
-    <t>0.351873</t>
-  </si>
-  <si>
-    <t> ({'algorithm': 'kd_tree', 'n_neighbors': 15, 'weights': 'distance'})</t>
-  </si>
-  <si>
-    <t>0.280358</t>
-  </si>
-  <si>
-    <t>0.150454</t>
-  </si>
-  <si>
-    <t>0.387650</t>
-  </si>
-  <si>
-    <t>0.417108</t>
-  </si>
-  <si>
-    <t>0.359973</t>
-  </si>
-  <si>
-    <t>0.197903</t>
-  </si>
-  <si>
-    <t>0.444846</t>
-  </si>
-  <si>
-    <t>0.235022</t>
-  </si>
-  <si>
-    <t>0.377794</t>
-  </si>
-  <si>
-    <t>0.242116</t>
-  </si>
-  <si>
-    <t>0.491513</t>
-  </si>
-  <si>
-    <t>0.057974</t>
   </si>
 </sst>
 </file>
@@ -596,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,12 +454,12 @@
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -635,7 +473,7 @@
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -647,240 +485,42 @@
       <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/agent/models/charts.xlsx
+++ b/agent/models/charts.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="model_perf" sheetId="1" r:id="rId1"/>
+    <sheet name="sl_model_perf" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>MAE (TS)</t>
   </si>
@@ -68,11 +68,29 @@
   <si>
     <t>Combinazione ottimale di iperparametri</t>
   </si>
+  <si>
+    <t>({'algorithm': 'kd_tree', 'n_neighbors': 16, 'weights': 'distance'})</t>
+  </si>
+  <si>
+    <t>{'criterion': 'squared_error', 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 100, 'random_state': 1, 'splitter': 'random'})</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'criterion': 'friedman_mse', 'max_depth': 22, 'min_samples_leaf': 1, 'min_samples_split': 50, 'n_estimators': 100, 'random_state': 66})</t>
+  </si>
+  <si>
+    <t>{'criterion': 'friedman_mse', 'learning_rate': 0.1, 'max_depth': 10, 'min_samples_leaf': 20, 'min_samples_split': 120, 'n_estimators': 50, 'random_state': 66})</t>
+  </si>
+  <si>
+    <t>{'C': 15, 'epsilon': 0.3, 'gamma': 'scale', 'kernel': 'rbf'})</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -154,6 +172,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -169,6 +189,4147 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" b="1" baseline="0"/>
+              <a:t>Metriche valutazione performance modelli </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" b="0" baseline="0"/>
+              <a:t>(TE) (basso è meglio) </a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sl_model_perf!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE (TE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>sl_model_perf!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>regLin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>regKNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>regDeT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>regSVR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>regRaF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>regGrB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sl_model_perf!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.37779400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28045900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29802099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30706</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27215099999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27361600000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5745-48E9-A1D1-E36E63DB38E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sl_model_perf!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE (TE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>sl_model_perf!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>regLin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>regKNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>regDeT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>regSVR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>regRaF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>regGrB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sl_model_perf!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.242116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14985299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16683799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16683700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13711499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13952100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5745-48E9-A1D1-E36E63DB38E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sl_model_perf!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE (TE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>sl_model_perf!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>regLin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>regKNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>regDeT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>regSVR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>regRaF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>regGrB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sl_model_perf!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.49151299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38689099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40821000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40801900000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37010399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37340699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5745-48E9-A1D1-E36E63DB38E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="766377440"/>
+        <c:axId val="766374944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="766377440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766374944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766374944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766377440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Metriche valutazione performance modelli </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(TS) (basso è meglio) </a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1400" b="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sl_model_perf!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE (TS)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>sl_model_perf!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>regLin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>regKNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>regDeT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>regSVR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>regRaF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>regGrB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sl_model_perf!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.35997299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28048600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28512199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22248999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.196552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF43-4294-A040-4F22A6A06371}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sl_model_perf!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE (TS)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>sl_model_perf!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>regLin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>regKNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>regDeT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>regSVR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>regRaF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>regGrB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sl_model_perf!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.197903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14479800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13858699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8540999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9356000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF43-4294-A040-4F22A6A06371}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sl_model_perf!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE (TS)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>sl_model_perf!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>regLin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>regKNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>regDeT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>regSVR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>regRaF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>regGrB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sl_model_perf!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.44484600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38050600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37223800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29754000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26334600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BF43-4294-A040-4F22A6A06371}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="766377440"/>
+        <c:axId val="766374944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="766377440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766374944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766374944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766377440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Coefficiente di determinazione </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1600" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>R^2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(TS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>) (alto è meglio) </a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1400" b="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sl_model_perf!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R^2 (TS)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>sl_model_perf!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>regLin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>regKNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>regDeT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>regSVR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>regRaF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>regGrB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sl_model_perf!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.23502200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44023400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46431699999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73185900000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-60F8-4D0B-90A3-17A3B55A6E3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="766377440"/>
+        <c:axId val="766374944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="766377440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766374944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766374944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766377440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Coefficiente di determinazione R^2</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="it-IT" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(TE) (alto è meglio) </a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1400" b="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sl_model_perf!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R^2 (TE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>sl_model_perf!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>regLin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>regKNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>regDeT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>regSVR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>regRaF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>regGrB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sl_model_perf!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.7973999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41933300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35187299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35131600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46784500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.457505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-277A-4C03-9B3D-ED4418453E2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="766377440"/>
+        <c:axId val="766374944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="766377440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766374944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766374944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766377440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357599</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352427</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243302</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>452850</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>424275</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,16 +4595,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
@@ -491,39 +4652,201 @@
         <v>9</v>
       </c>
       <c r="B2" s="1"/>
+      <c r="C2" s="7">
+        <v>0.35997299999999999</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.197903</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.44484600000000002</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.23502200000000001</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.37779400000000002</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.242116</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.49151299999999998</v>
+      </c>
+      <c r="J2" s="7">
+        <v>5.7973999999999998E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.28045900000000001</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.14985299999999999</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.38689099999999998</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.41933300000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.28048600000000001</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.14479800000000001</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.38050600000000001</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.44023400000000001</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.29802099999999998</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.16683799999999999</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.40821000000000002</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.35187299999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.28512199999999999</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.13858699999999999</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.37223800000000001</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.46431699999999998</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.30706</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.16683700000000001</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.40801900000000002</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.35131600000000002</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.22248999999999999</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8.8540999999999995E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.29754000000000003</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.65781999999999996</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.27215099999999998</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.13711499999999999</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.37010399999999999</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.46784500000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.196552</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6.9356000000000001E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.26334600000000002</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.73185900000000004</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.27361600000000003</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.13952100000000001</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.37340699999999999</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.457505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>